--- a/medicine/Psychotrope/David_Biraud/David_Biraud.xlsx
+++ b/medicine/Psychotrope/David_Biraud/David_Biraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Biraud, né le 7 août 1972 à La Roche-sur-Yon, est un sommelier français. Il devient en 2002 meilleur sommelier de France et obtient le titre de meilleur ouvrier de France en sommellerie en 2004. Il exerce ses talents au Mandarin Oriental de Paris depuis 2011.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de La Roche-sur-Yon en Vendée et fils d’un contrôleur des impôts et d’une mère comptable[1], David Biraud commence en 1989 sa formation en cuisine avec un CAP et un BEP au lycée professionnel Édouard Branly de sa ville natale[2]. Il poursuit ses études avec un BTH cuisine (1991) et un BTS restauration (1993) avant de se passionner pour l’œnologie[2] et de vouloir compléter en 1994 son cursus par une mention complémentaire en sommellerie, obtenue comme ses deux précédents diplômes au lycée technologique d’hôtellerie et de tourisme de Talence/Bordeaux[1].
-David Biraud fait ses premiers pas en tant que commis sommelier à L'Arpège (en) chez Alain Passard puis en 1995, il devient sommelier au restaurant Les Ambassadeurs de l'Hôtel de Crillon à Paris[1] où il pourra collaborer avec les chefs Christian Constant, Dominique Bouchet, Jean-François Piège et Christopher Hache. En 2000, à l'âge de 28 ans il est promu chef-sommelier de l'Hôtel de Crillon[2]. En mars 2011, à son ouverture, il rejoint le Mandarin Oriental de Paris comme chef-sommelier et directeur de restauration dans le restaurant Sur Mesure,  au Guide Michelin, où œuvre le chef Thierry Marx[1].
-David a développé le goût pour la compétition dès le début de sa carrière. Il va remporter consécutivement une série de prix nationaux, comme le Trophée Ruinart 1998 du meilleur jeune sommelier de France et les concours de Meilleur Sommelier de France en 2002 et de Meilleur Ouvrier de France en 2004. En 2010 et en 2013, il se classe second au concours du Meilleur Sommelier d'Europe, ainsi qu'en 2016 à celui du Meilleur Sommelier du Monde[3].
-En février 2018, il se qualifie pour représenter une nouvelle fois la France en finale du concours 2019 de Meilleur sommelier du monde[4]. Il a en effet défendu quatre fois consécutives les couleurs tricolores dans cette compétition : en 2010 à Santiago (Chili), en 2013 à Tokyo (Japon), en 2016 à Mendoza (Argentine) et en 2019 à Anvers (Belgique). Lors de l'édition 2019, il parvient en demi-finale et se classe à la 12e place du concours[5]. Il décide dans la foulée d'arrêter définitivement les concours de sommellerie afin de se consacrer à d'autres projets dans l'univers du vin ainsi qu'à sa famille[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de La Roche-sur-Yon en Vendée et fils d’un contrôleur des impôts et d’une mère comptable, David Biraud commence en 1989 sa formation en cuisine avec un CAP et un BEP au lycée professionnel Édouard Branly de sa ville natale. Il poursuit ses études avec un BTH cuisine (1991) et un BTS restauration (1993) avant de se passionner pour l’œnologie et de vouloir compléter en 1994 son cursus par une mention complémentaire en sommellerie, obtenue comme ses deux précédents diplômes au lycée technologique d’hôtellerie et de tourisme de Talence/Bordeaux.
+David Biraud fait ses premiers pas en tant que commis sommelier à L'Arpège (en) chez Alain Passard puis en 1995, il devient sommelier au restaurant Les Ambassadeurs de l'Hôtel de Crillon à Paris où il pourra collaborer avec les chefs Christian Constant, Dominique Bouchet, Jean-François Piège et Christopher Hache. En 2000, à l'âge de 28 ans il est promu chef-sommelier de l'Hôtel de Crillon. En mars 2011, à son ouverture, il rejoint le Mandarin Oriental de Paris comme chef-sommelier et directeur de restauration dans le restaurant Sur Mesure,  au Guide Michelin, où œuvre le chef Thierry Marx.
+David a développé le goût pour la compétition dès le début de sa carrière. Il va remporter consécutivement une série de prix nationaux, comme le Trophée Ruinart 1998 du meilleur jeune sommelier de France et les concours de Meilleur Sommelier de France en 2002 et de Meilleur Ouvrier de France en 2004. En 2010 et en 2013, il se classe second au concours du Meilleur Sommelier d'Europe, ainsi qu'en 2016 à celui du Meilleur Sommelier du Monde.
+En février 2018, il se qualifie pour représenter une nouvelle fois la France en finale du concours 2019 de Meilleur sommelier du monde. Il a en effet défendu quatre fois consécutives les couleurs tricolores dans cette compétition : en 2010 à Santiago (Chili), en 2013 à Tokyo (Japon), en 2016 à Mendoza (Argentine) et en 2019 à Anvers (Belgique). Lors de l'édition 2019, il parvient en demi-finale et se classe à la 12e place du concours. Il décide dans la foulée d'arrêter définitivement les concours de sommellerie afin de se consacrer à d'autres projets dans l'univers du vin ainsi qu'à sa famille,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lors de ses participations aux concours de sommellerie nationaux et internationaux, David Biraud s'est constitué un brillant palmarès[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lors de ses participations aux concours de sommellerie nationaux et internationaux, David Biraud s'est constitué un brillant palmarès:
 1994 : 2e place au concours du Meilleur élève sommelier de France (Trophée Chapoutier).
 1998 : Meilleur jeune sommelier de France (Trophée Ruinart).
 2002 : Meilleur sommelier de France.
@@ -586,7 +602,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2002 : Café. Accords Gourmands avec Stéphane Sterne, Roseline Desgroux, Vincent Pateux - Agnès Vienot Editions  (ISBN 2-914645-18-X).</t>
         </is>
